--- a/DATABASE/Spotify_Genres_list_final.xlsx
+++ b/DATABASE/Spotify_Genres_list_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etomi\Desktop\Uni W2022\MAIS202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etomi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D6C94A-FE48-49B0-8FC2-6742FDFEABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CF024-45C3-4AFB-8838-D23B2D6A8281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{DDAFCFAD-A2CA-433C-9760-D77700F68871}"/>
   </bookViews>
@@ -909,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD979B92-0D6C-4F91-9B41-82052993B453}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -992,1183 +992,2119 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D8" s="5">
         <v>100</v>
       </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:E52" si="0">SUM(D4, D5)</f>
+      <c r="E8" s="6">
+        <f t="shared" ref="E8:E152" si="0">SUM(D8, D9)</f>
         <v>200</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F8" s="12">
         <v>100</v>
       </c>
-      <c r="G4" s="6">
-        <f>SUM(F4, F5)</f>
+      <c r="G8" s="6">
+        <f>SUM(F8, F9)</f>
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D9" s="5">
         <v>100</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="12">
+      <c r="E9" s="6"/>
+      <c r="F9" s="12">
         <v>85</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D14" s="5">
         <v>100</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F14" s="12">
         <v>99</v>
       </c>
-      <c r="G6" s="6">
-        <f>SUM(F6, F7)</f>
+      <c r="G14" s="6">
+        <f>SUM(F14, F15)</f>
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D15" s="5">
         <v>54</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="12">
+      <c r="E15" s="6"/>
+      <c r="F15" s="12">
         <v>52</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D20" s="5">
         <v>100</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F20" s="12">
         <v>94</v>
       </c>
-      <c r="G8" s="6">
-        <f>SUM(F8, F9)</f>
+      <c r="G20" s="6">
+        <f>SUM(F20, F21)</f>
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D21" s="5">
         <v>100</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="12">
+      <c r="E21" s="6"/>
+      <c r="F21" s="12">
         <v>83</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D26" s="5">
         <v>100</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F26" s="12">
         <v>96</v>
       </c>
-      <c r="G10" s="6">
-        <f>SUM(F10, F11)</f>
+      <c r="G26" s="6">
+        <f>SUM(F26, F27)</f>
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D27" s="5">
         <v>75</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="12">
+      <c r="E27" s="6"/>
+      <c r="F27" s="12">
         <v>60</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D32" s="5">
         <v>50</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F32" s="12">
         <v>50</v>
       </c>
-      <c r="G12" s="6">
-        <f>SUM(F12, F13)</f>
+      <c r="G32" s="6">
+        <f>SUM(F32, F33)</f>
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D33" s="5">
         <v>50</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="12">
+      <c r="E33" s="6"/>
+      <c r="F33" s="12">
         <v>47</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D38" s="5">
         <v>75</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F38" s="12">
         <v>55</v>
       </c>
-      <c r="G14" s="6">
-        <f>SUM(F14, F15)</f>
+      <c r="G38" s="6">
+        <f>SUM(F38, F39)</f>
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D39" s="5">
         <v>100</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="12">
+      <c r="E39" s="6"/>
+      <c r="F39" s="12">
         <v>88</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D44" s="5">
         <v>67</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F44" s="12">
         <v>67</v>
-      </c>
-      <c r="G16" s="6">
-        <f>SUM(F16, F17)</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5">
-        <v>67</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="12">
-        <v>50</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5">
-        <v>100</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="F18" s="12">
-        <v>90</v>
-      </c>
-      <c r="G18" s="6">
-        <f>SUM(F18, F19)</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="5">
-        <v>110</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="12">
-        <v>98</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="5">
-        <v>104</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="F20" s="12">
-        <v>104</v>
-      </c>
-      <c r="G20" s="6">
-        <f>SUM(F20, F21)</f>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5">
-        <v>100</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="12">
-        <v>90</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="5">
-        <v>50</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F22" s="12">
-        <v>47</v>
-      </c>
-      <c r="G22" s="6">
-        <f>SUM(F22, F23)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="5">
-        <v>50</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="12">
-        <v>36</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="5">
-        <v>100</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="F24" s="12">
-        <v>53</v>
-      </c>
-      <c r="G24" s="6">
-        <f>SUM(F24, F25)</f>
-        <v>74</v>
-      </c>
-      <c r="H24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="5">
-        <v>75</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="12">
-        <v>21</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="5">
-        <v>115</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="F26" s="12">
-        <v>102</v>
-      </c>
-      <c r="G26" s="6">
-        <f>SUM(F26, F27)</f>
-        <v>131</v>
-      </c>
-      <c r="H26" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="5">
-        <v>50</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="12">
-        <v>29</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="5">
-        <v>100</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="F28" s="12">
-        <v>92</v>
-      </c>
-      <c r="G28" s="6">
-        <f>SUM(F28, F29)</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="5">
-        <v>110</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="12">
-        <v>107</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="5">
-        <v>148</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="F30" s="12">
-        <v>148</v>
-      </c>
-      <c r="G30" s="6">
-        <f>SUM(F30, F31)</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="5">
-        <v>60</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="12">
-        <v>60</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="5">
-        <v>72</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="F32" s="12">
-        <v>70</v>
-      </c>
-      <c r="G32" s="6">
-        <f>SUM(F32, F33)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="5">
-        <v>62</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="12">
-        <v>62</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="5">
-        <v>95</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="F34" s="12">
-        <v>95</v>
-      </c>
-      <c r="G34" s="6">
-        <f>SUM(F34, F35)</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="5">
-        <v>100</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="12">
-        <v>100</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="5">
-        <v>100</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="F36" s="12">
-        <v>100</v>
-      </c>
-      <c r="G36" s="6">
-        <f>SUM(F36, F37)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="5">
-        <v>50</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="12">
-        <v>42</v>
-      </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="5">
-        <v>50</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F38" s="12">
-        <v>49</v>
-      </c>
-      <c r="G38" s="6">
-        <f>SUM(F38, F39)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="5">
-        <v>50</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="12">
-        <v>50</v>
-      </c>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="5">
-        <v>67</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="F40" s="12">
-        <v>66</v>
-      </c>
-      <c r="G40" s="6">
-        <f>SUM(F40, F41)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="5">
-        <v>92</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="12">
-        <v>84</v>
-      </c>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="5">
-        <v>100</v>
-      </c>
-      <c r="E42" s="6">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="F42" s="12">
-        <v>99</v>
-      </c>
-      <c r="G42" s="6">
-        <f>SUM(F42, F43)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="5">
-        <v>50</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="12">
-        <v>29</v>
-      </c>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="5">
-        <v>50</v>
-      </c>
-      <c r="E44" s="6">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="F44" s="12">
-        <v>48</v>
       </c>
       <c r="G44" s="6">
         <f>SUM(F44, F45)</f>
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="D45" s="5">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="12">
+        <v>50</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="5">
+        <v>100</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="F50" s="12">
+        <v>90</v>
+      </c>
+      <c r="G50" s="6">
+        <f>SUM(F50, F51)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="5">
+        <v>110</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="12">
+        <v>98</v>
+      </c>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="5">
+        <v>104</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="F56" s="12">
+        <v>104</v>
+      </c>
+      <c r="G56" s="6">
+        <f>SUM(F56, F57)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="5">
+        <v>100</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="12">
+        <v>90</v>
+      </c>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="5">
+        <v>50</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F62" s="12">
+        <v>47</v>
+      </c>
+      <c r="G62" s="6">
+        <f>SUM(F62, F63)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="5">
+        <v>50</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="12">
+        <v>36</v>
+      </c>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="5">
+        <v>100</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="F68" s="12">
+        <v>53</v>
+      </c>
+      <c r="G68" s="6">
+        <f>SUM(F68, F69)</f>
+        <v>74</v>
+      </c>
+      <c r="H68" t="s">
+        <v>141</v>
+      </c>
+      <c r="I68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="5">
+        <v>75</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="12">
+        <v>21</v>
+      </c>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="5">
+        <v>115</v>
+      </c>
+      <c r="E74" s="6">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="F74" s="12">
+        <v>102</v>
+      </c>
+      <c r="G74" s="6">
+        <f>SUM(F74, F75)</f>
+        <v>131</v>
+      </c>
+      <c r="H74" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="5">
+        <v>50</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="12">
+        <v>29</v>
+      </c>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="5">
+        <v>100</v>
+      </c>
+      <c r="E80" s="6">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="F80" s="12">
+        <v>92</v>
+      </c>
+      <c r="G80" s="6">
+        <f>SUM(F80, F81)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
+      <c r="C81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="5">
+        <v>110</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="12">
+        <v>107</v>
+      </c>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="5">
+        <v>148</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="F86" s="12">
+        <v>148</v>
+      </c>
+      <c r="G86" s="6">
+        <f>SUM(F86, F87)</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="5">
+        <v>60</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="12">
+        <v>60</v>
+      </c>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="5">
+        <v>72</v>
+      </c>
+      <c r="E92" s="6">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="F92" s="12">
+        <v>70</v>
+      </c>
+      <c r="G92" s="6">
+        <f>SUM(F92, F93)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="5">
+        <v>62</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="12">
+        <v>62</v>
+      </c>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="5">
+        <v>95</v>
+      </c>
+      <c r="E98" s="6">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="F98" s="12">
+        <v>95</v>
+      </c>
+      <c r="G98" s="6">
+        <f>SUM(F98, F99)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="5">
+        <v>100</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="12">
+        <v>100</v>
+      </c>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="3"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="3"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="3"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="5">
+        <v>100</v>
+      </c>
+      <c r="E104" s="6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F104" s="12">
+        <v>100</v>
+      </c>
+      <c r="G104" s="6">
+        <f>SUM(F104, F105)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="5">
+        <v>50</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="12">
+        <v>42</v>
+      </c>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="3"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" s="3"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" s="3"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" s="3"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" s="5">
+        <v>50</v>
+      </c>
+      <c r="E110" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F110" s="12">
+        <v>49</v>
+      </c>
+      <c r="G110" s="6">
+        <f>SUM(F110, F111)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="3"/>
+      <c r="B111" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="5">
+        <v>50</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="12">
+        <v>50</v>
+      </c>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" s="3"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113" s="3"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114" s="3"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" s="3"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="5">
+        <v>67</v>
+      </c>
+      <c r="E116" s="6">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="F116" s="12">
+        <v>66</v>
+      </c>
+      <c r="G116" s="6">
+        <f>SUM(F116, F117)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" s="3"/>
+      <c r="B117" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="5">
+        <v>92</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="12">
+        <v>84</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" s="3"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" s="3"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="3"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" s="3"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D122" s="5">
+        <v>100</v>
+      </c>
+      <c r="E122" s="6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F122" s="12">
+        <v>99</v>
+      </c>
+      <c r="G122" s="6">
+        <f>SUM(F122, F123)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123" s="3"/>
+      <c r="B123" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="5">
+        <v>50</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="12">
+        <v>29</v>
+      </c>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124" s="3"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" s="3"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126" s="3"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" s="3"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128" s="5">
+        <v>50</v>
+      </c>
+      <c r="E128" s="6">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="F128" s="12">
+        <v>48</v>
+      </c>
+      <c r="G128" s="6">
+        <f>SUM(F128, F129)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129" s="3"/>
+      <c r="B129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="5">
+        <v>80</v>
+      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="12">
+        <v>76</v>
+      </c>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130" s="3"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="3"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" s="3"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133" s="3"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B134" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C134" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D134" s="5">
         <v>100</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E134" s="6">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F134" s="12">
         <v>93</v>
       </c>
-      <c r="G46" s="6">
-        <f>SUM(F46, F47)</f>
+      <c r="G134" s="6">
+        <f>SUM(F134, F135)</f>
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
-      <c r="B47" s="9" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135" s="3"/>
+      <c r="B135" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D135" s="5">
         <v>86</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="12">
+      <c r="E135" s="6"/>
+      <c r="F135" s="12">
         <v>67</v>
       </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136" s="3"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" s="3"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138" s="3"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139" s="3"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B140" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D140" s="5">
         <v>80</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E140" s="6">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F140" s="12">
         <v>80</v>
       </c>
-      <c r="G48" s="6">
-        <f>SUM(F48, F49)</f>
+      <c r="G140" s="6">
+        <f>SUM(F140, F141)</f>
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="3"/>
-      <c r="B49" s="5" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141" s="3"/>
+      <c r="B141" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D141" s="5">
         <v>100</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="12">
+      <c r="E141" s="6"/>
+      <c r="F141" s="12">
         <v>75</v>
       </c>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142" s="3"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="6"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A143" s="3"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A144" s="3"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="6"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145" s="3"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="6"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B146" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D146" s="5">
         <v>69</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E146" s="6">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F146" s="12">
         <v>69</v>
       </c>
-      <c r="G50" s="6">
-        <f>SUM(F50, F51)</f>
+      <c r="G146" s="6">
+        <f>SUM(F146, F147)</f>
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="3"/>
-      <c r="B51" s="5" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147" s="3"/>
+      <c r="B147" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C147" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D147" s="5">
         <v>107</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="12">
+      <c r="E147" s="6"/>
+      <c r="F147" s="12">
         <v>82</v>
       </c>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148" s="3"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149" s="3"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150" s="3"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151" s="3"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B152" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C152" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D152" s="5">
         <v>50</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E152" s="6">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F152" s="12">
         <v>50</v>
       </c>
-      <c r="G52" s="6">
-        <f>SUM(F52, F53)</f>
+      <c r="G152" s="6">
+        <f>SUM(F152, F153)</f>
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="3"/>
-      <c r="B53" s="5" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153" s="3"/>
+      <c r="B153" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C153" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D153" s="5">
         <v>82</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="12">
+      <c r="E153" s="6"/>
+      <c r="F153" s="12">
         <v>76</v>
       </c>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="10" t="s">
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154" s="3"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155" s="3"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156" s="3"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157" s="3"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B158" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C158" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="10">
-        <f>SUM(D2:D53)</f>
+      <c r="D158" s="10">
+        <f>SUM(D2:D153)</f>
         <v>4277</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="12">
-        <f>SUM(F2:F53)</f>
+      <c r="E158" s="6"/>
+      <c r="F158" s="12">
+        <f>SUM(F2:F153)</f>
         <v>3835</v>
       </c>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="2"/>
-      <c r="B74" s="1"/>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="2"/>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="2"/>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="2"/>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="2"/>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="2"/>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="2"/>
+      <c r="B178" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{FEF1F4AB-5306-4799-BAE1-A803097320B1}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{1CF6BC9B-B3BE-478D-B5AE-86F57580F7D4}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{25CDA5D1-FDC6-4BA6-B7DF-5A3FFE8A99CE}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{884B7390-0F42-472A-90C1-8770C4A56451}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{DFFC68F9-99EC-47DC-B14B-DD049B093003}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{27286693-EB67-44C3-97F3-B2AAE811755F}"/>
-    <hyperlink ref="B28" r:id="rId7" xr:uid="{B4BC3147-CE9F-4389-BB2A-D90657C7CA7F}"/>
-    <hyperlink ref="B32" r:id="rId8" xr:uid="{90D70C5B-B26D-44DF-B0F3-52C829C79671}"/>
-    <hyperlink ref="B47" r:id="rId9" xr:uid="{31DA470E-D94F-4E8E-9EE5-91EA3462A984}"/>
-    <hyperlink ref="B54" r:id="rId10" xr:uid="{F8624AA5-93B7-460A-B080-FFF51B10B6B2}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{FEF1F4AB-5306-4799-BAE1-A803097320B1}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{1CF6BC9B-B3BE-478D-B5AE-86F57580F7D4}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{25CDA5D1-FDC6-4BA6-B7DF-5A3FFE8A99CE}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{884B7390-0F42-472A-90C1-8770C4A56451}"/>
+    <hyperlink ref="B26" r:id="rId5" xr:uid="{DFFC68F9-99EC-47DC-B14B-DD049B093003}"/>
+    <hyperlink ref="B38" r:id="rId6" xr:uid="{27286693-EB67-44C3-97F3-B2AAE811755F}"/>
+    <hyperlink ref="B80" r:id="rId7" xr:uid="{B4BC3147-CE9F-4389-BB2A-D90657C7CA7F}"/>
+    <hyperlink ref="B92" r:id="rId8" xr:uid="{90D70C5B-B26D-44DF-B0F3-52C829C79671}"/>
+    <hyperlink ref="B135" r:id="rId9" xr:uid="{31DA470E-D94F-4E8E-9EE5-91EA3462A984}"/>
+    <hyperlink ref="B158" r:id="rId10" xr:uid="{F8624AA5-93B7-460A-B080-FFF51B10B6B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
